--- a/init-data/hzero-platform/hzero_platform/hzero-platform-language.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-language.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
